--- a/projects/CGE_Generator/data/A_InvestmentNests.xlsx
+++ b/projects/CGE_Generator/data/A_InvestmentNests.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/projects/CGE_Generator/data/A_InvestmentNests.xlsx
+++ b/projects/CGE_Generator/data/A_InvestmentNests.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +437,7 @@
         <v>7</v>
       </c>
       <c r="G2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -460,7 +460,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -483,7 +483,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -552,7 +552,7 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
